--- a/biology/Médecine/A.-F.-Thomas_Le_Vacher_de_la_Feutrie/A.-F.-Thomas_Le_Vacher_de_la_Feutrie.xlsx
+++ b/biology/Médecine/A.-F.-Thomas_Le_Vacher_de_la_Feutrie/A.-F.-Thomas_Le_Vacher_de_la_Feutrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas[1] Levacher de La Feutrie, né à Breteuil-sur-Iton le 12 février 1738 et mort le 4 mars 1790 à Paris, est un médecin et lexicographe français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Levacher de La Feutrie, né à Breteuil-sur-Iton le 12 février 1738 et mort le 4 mars 1790 à Paris, est un médecin et lexicographe français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Levacher fit ses premières études médicales à Caen, y fut promu au doctorat en 1766. Il vint ensuite à Paris, disputa en 1764 le prix légué par le docteur Jean de Diest pour l’obtention des degrés en médecine depuis le baccalauréat jusqu’à la régence inclusivement, et le gagna. Il devint docteur-régent l’année suivante. Il passa sa thèse en 1768, et se livra à la pratique, où il obtint beaucoup de succès.
 Levacher de La Feutrie fut docteur de la faculté de médecine de Caen puis doyen de la faculté de médecine de Paris. Il fut un des fondateurs de la Société médicale d’émulation de Paris. Il donna, conjointement avec Moysant, E. de La Marcellerie, le Dictionnaire de chirurgie, Paris, 1767, 2 vol. in-8°. Il a aussi écrit en latin.
